--- a/ocms/src/test/resources/TestData/OCMAudioVideoPlaybackReport.xlsx
+++ b/ocms/src/test/resources/TestData/OCMAudioVideoPlaybackReport.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\admin\git\scripts\ocms\src\test\resources\TestData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C10D23AC-5BE7-4714-A5AC-BED00B881395}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D83F19FB-CC7F-41B3-89A8-91A15E00CD7E}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10560" firstSheet="4" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -115,7 +115,7 @@
     <t>12-05-2020 00:00:00</t>
   </si>
   <si>
-    <t>SELECT M.[SessionID],M.[IDENTIFICATION] as [Identification],M.CHANNEL as [Channel],M.[Skill],
+    <t>SELECT M.[SessionID] as [Session ID],M.[IDENTIFICATION] as [Identification],M.CHANNEL as [Channel],M.[Skill],
 M.[AgentID] as [Agent ID],A.[AgentName] as [Agent Name],A.[TeamName] as [Team Name],
 A.[SupervisorName] as [Supervisor Name],
 FORMAT([dbo].[VARCHARTODATETIME](M.ChatBotStartDateTime),'dd/MM/yyyy HH:mm:ss') as [ChatBot Start Date Time],
@@ -127,7 +127,7 @@
 --[IntentName],[SegmentCode],[SubSegmentCode],[CustEntType],[IsChatConferenced],[IsChatTransfered],
 CONVERT(varchar, DATEADD(ms, AgentWaitTime* 1000, 0), 108) as [Agent Wait Time],
 CONVERT(varchar, DATEADD(ms, UserWaitTime* 1000, 0), 108) as[User Wait Time],
-[ChatEndReason] as [Chat End Reason] 
+[ChatEndReason] as [Chat End Reason],' ' as[ ]
 --M.OTHERDATA 
 from 
 (SELECT DISTINCT  H.SESSIONID,H.ID,H.CIF AS IDENTIFICATION,INTDATETIME.StartDateTime,INTDATETIME.EndDateTime,
@@ -1013,8 +1013,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:F2"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>

--- a/ocms/src/test/resources/TestData/OCMAudioVideoPlaybackReport.xlsx
+++ b/ocms/src/test/resources/TestData/OCMAudioVideoPlaybackReport.xlsx
@@ -1,16 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21929"/>
-  <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\admin\git\scripts\ocms\src\test\resources\TestData\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D83F19FB-CC7F-41B3-89A8-91A15E00CD7E}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="153222"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10560" firstSheet="4" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="17730" windowHeight="8040" firstSheet="4" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="Show" sheetId="1" r:id="rId1"/>
@@ -20,9 +14,10 @@
     <sheet name="ExportReport" sheetId="5" r:id="rId5"/>
     <sheet name="ExportReportDateRange" sheetId="6" r:id="rId6"/>
     <sheet name="AdvanceSearch" sheetId="8" r:id="rId7"/>
-    <sheet name="Queries" sheetId="11" r:id="rId8"/>
+    <sheet name="Sheet3" sheetId="11" r:id="rId8"/>
   </sheets>
-  <calcPr calcId="0" calcMode="manual"/>
+  <calcPr calcId="0"/>
+  <oleSize ref="A1:J24"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -32,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="170" uniqueCount="51">
   <si>
     <t>Report Channel</t>
   </si>
@@ -49,9 +44,6 @@
     <t>Single Date</t>
   </si>
   <si>
-    <t>random.str</t>
-  </si>
-  <si>
     <t>Start Date</t>
   </si>
   <si>
@@ -97,112 +89,103 @@
     <t>OCM Audio Video Playback Report</t>
   </si>
   <si>
-    <t>Media Agent3</t>
-  </si>
-  <si>
     <t>Media</t>
   </si>
   <si>
-    <t>Agent</t>
-  </si>
-  <si>
-    <t>Query</t>
-  </si>
-  <si>
-    <t>01-05-2020 00:00:00</t>
-  </si>
-  <si>
-    <t>12-05-2020 00:00:00</t>
-  </si>
-  <si>
-    <t>SELECT M.[SessionID] as [Session ID],M.[IDENTIFICATION] as [Identification],M.CHANNEL as [Channel],M.[Skill],
-M.[AgentID] as [Agent ID],A.[AgentName] as [Agent Name],A.[TeamName] as [Team Name],
-A.[SupervisorName] as [Supervisor Name],
-FORMAT([dbo].[VARCHARTODATETIME](M.ChatBotStartDateTime),'dd/MM/yyyy HH:mm:ss') as [ChatBot Start Date Time],
-FORMAT([dbo].[VARCHARTODATETIME](M.[ChatBotEndDateTime]),'dd/MM/yyyy HH:mm:ss') as [ChatBot End Date Time],
-FORMAT([dbo].[VARCHARTODATETIME](M.StartDateTime),'dd/MM/yyyy HH:mm:ss') as [Live Chat Start Date Time],
-FORMAT([dbo].[VARCHARTODATETIME](M.EndDateTime),'dd/MM/yyyy HH:mm:ss') as [Live Chat End Date Time],
-CONVERT(varchar, DATEADD(ms, DurationTime* 1000, 0), 108) as [Duration],
-[CallBack],CONVERT(varchar, DATEADD(ms, QueueWaitTime* 1000, 0), 108) as [Queue Wait Time],
---[IntentName],[SegmentCode],[SubSegmentCode],[CustEntType],[IsChatConferenced],[IsChatTransfered],
-CONVERT(varchar, DATEADD(ms, AgentWaitTime* 1000, 0), 108) as [Agent Wait Time],
-CONVERT(varchar, DATEADD(ms, UserWaitTime* 1000, 0), 108) as[User Wait Time],
-[ChatEndReason] as [Chat End Reason],' ' as[ ]
---M.OTHERDATA 
-from 
-(SELECT DISTINCT  H.SESSIONID,H.ID,H.CIF AS IDENTIFICATION,INTDATETIME.StartDateTime,INTDATETIME.EndDateTime,
-			CASE WHEN ChatBotStartDateTime IS NULL THEN INTDATETIME.StartDateTime ELSE ChatBotStartDateTime END ChatBotStartDateTime,
-			CASE WHEN ChatBotEndDateTime IS NULL THEN INTDATETIME.EndDateTime ELSE ChatBotEndDateTime END ChatBotEndDateTime,I.Intent INTENTNAME ,
-			(CASE WHEN ISNULL(S.SkillName,'')='' THEN ISNULL(I.Skill,'') ELSE ISNULL(S.SkillName,'') END) as Skill,
-			(CASE WHEN (Isnull(TabCallback.CallbackCount,0))=0 THEN 'No' ELSE 'Yes' END) AS CALLBACK, 
-			isnull((DATEDIFF(SECOND,convert(datetime,stuff(stuff(stuff(INTDATETIME.StartDateTime, 9, 0, ' '), 12, 0, ':'), 15, 0, ':')),
-			convert(datetime,stuff(stuff(stuff(INTDURTIME.DurEndDateTime, 9, 0, ' '), 12, 0, ':'), 15, 0, ':')))),0) AS DURATIONTIME,
-			ISCHATTRANSFERED,ISCHATCONFERENCED,  I.AgentID AS AGENTID,OTHERDATA as OTHERDATA,Isnull(QueueTime,0) AS QUEUEWAITTIME,
-			AGENTWAITTIME,USERWAITTIME, I.SUBCHANNEL AS CHANNEL, INTDURTIME.CHATENDREASON
-			FROM GBL_INTERACTIONHISTORY H with(nolock) 
-			LEFT JOIN TMAC_Interactions I with(nolock)ON I.SessionID= H.SessionID
-			LEFT JOIN TMAC_Skills S with(nolock) on S.SkillExtension=I.Skill
-			LEFT JOIN
-			(
-			  SELECT SessionID, isnull(sum(ISTRANSFERED),0) AS ISCHATTRANSFERED,isnull(sum(ISCONFERENCED),0) AS ISCHATCONFERENCED, 
-			  isnull(sum(AgentWaitTimeForResponse),0) as AGENTWAITTIME , isnull(sum(UserWaitTimeForResponse),0) as USERWAITTIME from TMAC_Interactions with(nolock) 
-			  WHERE Channel IN ('AudioChat','VideoChat') OR SubChannel IN ('Audio','Video') GROUP BY SESSIONID
-			) 
-			CHAT ON CHAT.SessionID=H.SessionID 	
-			LEFT JOIN
-			(
-				SELECT  SessionID,MIN(INTERACTIONDATE+INTERACTIONTIME) AS StartDateTime,
-				MAX(INTERACTIONDATE+INTERACTIONTIME) AS EndDateTime FROM GBL_INTERACTIONHISTORY with(nolock) WHERE Channel IN ('AudioChat','VideoChat','Chat','TextChat') AND InsertedBy &lt;&gt; 'ChatBot' 
-				GROUP BY SESSIONID
-			) 
-			INTDATETIME ON INTDATETIME.SessionID = H.SessionID 	
-			LEFT JOIN
-			(
-				SELECT  SessionID,MIN(INTERACTIONDATE+INTERACTIONTIME) AS ChatBotStartDateTime,
-				MAX(INTERACTIONDATE+INTERACTIONTIME) AS ChatBotEndDateTime FROM GBL_INTERACTIONHISTORY with(nolock) WHERE Channel IN ('AudioChat','VideoChat','Chat','TextChat') AND InsertedBy = 'ChatBot' 
-				GROUP BY SESSIONID
-			) 
-			BOTDATETIME ON BOTDATETIME.SessionID = H.SessionID 	
-			LEFT JOIN
-			(
-				SELECT  SessionID,INTERACTIONDATE+INTERACTIONTIME AS DurEndDateTime,substring (InteractionText ,charindex(':',InteractionText)+1,500) AS CHATENDREASON 
-				FROM GBL_INTERACTIONHISTORY with(nolock) WHERE ID IN ( SELECT  MAX(id) as ID from GBL_INTERACTIONHISTORY with(nolock)  
-				WHERE Channel IN ('AudioChat','VideoChat','Chat','TextChat')  AND (INTERACTIONTEXT like '_RemoteEndDisconnected%'  OR INTERACTIONTEXT like '_RemoteEndClosed%' OR INTERACTIONTEXT like '_Agent-EndTextChat%')
-				AND InsertedBy &lt;&gt; 'ChatBot' 
-				GROUP BY SESSIONID) GROUP BY SESSIONID,INTERACTIONDATE,INTERACTIONTIME,InteractionText
-			) 
-			INTDURTIME ON INTDURTIME.SessionID = H.SessionID 	
-			LEFT JOIN 
-			(	
-				 Select SessionID, COUNT(1) as CallbackCount FROM IVR_CALLBACK_REQUESTS R with(nolock)
-				 JOIN TMAC_Interactions C with(nolock) on C.SubSessionId  = R.UCID 
-				 GROUP By SessionID
-			) 
-			TabCallback on TabCallback.SessionID = H.SessionID 
-			INNER JOIN
-			(
-			  SELECT  min(id) as ID,SESSIONID from GBL_INTERACTIONHISTORY with(nolock) WHERE Channel IN ('AudioChat','VideoChat','Chat','TextChat')
-			  GROUP BY SESSIONID
-			)
-			HID ON HID.SESSIONID = H.SESSIONID AND HID.ID=H.ID
-			WHERE IsTransfered=0 AND IsConferenced=0  AND H.Channel IN ('AudioChat','VideoChat','Chat','TextChat') 
-			AND I.ClosedDateTime &gt;= 'ReportBeforeDate' AND I.ClosedDateTime &lt;= 'ReportAfterDate'
-			AND I.CreatedDateTime in ( SELECT  min(CreatedDateTime) as id from TMAC_Interactions with(nolock)  
-			WHERE (Channel IN ('AudioChat','VideoChat') OR SubChannel IN ('Audio','Video')) 
-			AND CALLCONNECTEDTIME != '00010101000000' 
-			AND ClosedDateTime &gt;= 'ReportBeforeDate' AND ClosedDateTime &lt;= 'ReportAfterDate'		
-			GROUP BY SESSIONID)
-			GROUP BY H.sessionid,I.Intent,TabCallback.CallbackCount,CustomData,CHAT.AGENTWAITTIME,CHAT.USERWAITTIME,
-			QUEUETIME,StartDateTime,EndDateTime,ChatBotStartDateTime,ChatBotEndDateTime,CIF,ISCHATTRANSFERED,ISCHATCONFERENCED,H.ID,
-			I.AgentID,INTDURTIME.DurEndDateTime,I.Subchannel,INTDURTIME.CHATENDREASON,I.OtherData,S.SkillName,I.Skill) 
-			M INNER JOIN fn_AgentHierarchy('na','1','1') A on A.[AgentId]=M.[AgentID] 
-			order by M.ChatBotStartDateTime ASC;</t>
+    <t>A</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ends with </t>
+  </si>
+  <si>
+    <t>n</t>
+  </si>
+  <si>
+    <t>Agent ID</t>
+  </si>
+  <si>
+    <t>Chat End Reason</t>
+  </si>
+  <si>
+    <t>Skill</t>
+  </si>
+  <si>
+    <t>Identification</t>
+  </si>
+  <si>
+    <t>S1234567A</t>
+  </si>
+  <si>
+    <t>ChatMediaSkill</t>
+  </si>
+  <si>
+    <t>AgentChatDisconnected</t>
+  </si>
+  <si>
+    <t>01-04-2020 00:00:00</t>
+  </si>
+  <si>
+    <t>20-05-2020 00:00:00</t>
+  </si>
+  <si>
+    <t>Search String1</t>
+  </si>
+  <si>
+    <t>Search String2</t>
+  </si>
+  <si>
+    <t>Murali MS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Murali </t>
+  </si>
+  <si>
+    <t>9</t>
+  </si>
+  <si>
+    <t>Is not equal to</t>
+  </si>
+  <si>
+    <t>India</t>
+  </si>
+  <si>
+    <t>Team Name</t>
+  </si>
+  <si>
+    <t>QA</t>
+  </si>
+  <si>
+    <t>Does not contain</t>
+  </si>
+  <si>
+    <t>Starts with</t>
+  </si>
+  <si>
+    <t>Ends with</t>
+  </si>
+  <si>
+    <t>ChatSkill</t>
+  </si>
+  <si>
+    <t>4</t>
+  </si>
+  <si>
+    <t>DeleteReason</t>
+  </si>
+  <si>
+    <t>Delete</t>
+  </si>
+  <si>
+    <t>Channel</t>
+  </si>
+  <si>
+    <t>audio</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -232,13 +215,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -518,22 +498,22 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="21.1796875" customWidth="1"/>
-    <col min="2" max="2" width="33.81640625" customWidth="1"/>
-    <col min="3" max="3" width="20.453125" customWidth="1"/>
-    <col min="4" max="4" width="17.26953125" customWidth="1"/>
+    <col min="1" max="1" width="21.140625" customWidth="1"/>
+    <col min="2" max="2" width="33.85546875" customWidth="1"/>
+    <col min="3" max="3" width="20.42578125" customWidth="1"/>
+    <col min="4" max="4" width="17.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -547,18 +527,18 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C2" t="s">
         <v>4</v>
       </c>
-      <c r="D2" t="s">
-        <v>5</v>
+      <c r="D2" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
   </sheetData>
@@ -567,25 +547,27 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:H5"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H2" sqref="H2"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="I5" sqref="I5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="17.1796875" customWidth="1"/>
-    <col min="2" max="2" width="34.7265625" customWidth="1"/>
-    <col min="3" max="3" width="18.1796875" customWidth="1"/>
-    <col min="4" max="4" width="15.81640625" customWidth="1"/>
-    <col min="5" max="5" width="13.7265625" customWidth="1"/>
-    <col min="6" max="6" width="17" customWidth="1"/>
-    <col min="8" max="8" width="21.1796875" customWidth="1"/>
+    <col min="1" max="1" width="17.140625" customWidth="1"/>
+    <col min="2" max="2" width="34.7109375" customWidth="1"/>
+    <col min="3" max="3" width="18.140625" customWidth="1"/>
+    <col min="4" max="4" width="15.85546875" customWidth="1"/>
+    <col min="5" max="5" width="17.7109375" customWidth="1"/>
+    <col min="6" max="6" width="19.85546875" customWidth="1"/>
+    <col min="7" max="7" width="17.140625" customWidth="1"/>
+    <col min="8" max="8" width="22.85546875" customWidth="1"/>
+    <col min="9" max="9" width="15.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -596,123 +578,181 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="E1" s="1" t="s">
-        <v>7</v>
-      </c>
       <c r="F1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="H1" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I1" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B2" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="F2" t="s">
+        <v>26</v>
+      </c>
+      <c r="G2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H2" t="s">
+        <v>29</v>
+      </c>
+      <c r="I2" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="F3" t="s">
+        <v>25</v>
+      </c>
+      <c r="G3" t="s">
+        <v>16</v>
+      </c>
+      <c r="H3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="F4" t="s">
+        <v>14</v>
+      </c>
+      <c r="G4" t="s">
+        <v>17</v>
+      </c>
+      <c r="H4" t="s">
         <v>20</v>
       </c>
-      <c r="C2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D2" t="s">
-        <v>5</v>
-      </c>
-      <c r="E2" t="s">
-        <v>5</v>
-      </c>
-      <c r="F2" t="s">
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="F5" t="s">
+        <v>14</v>
+      </c>
+      <c r="G5" t="s">
+        <v>18</v>
+      </c>
+      <c r="H5" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C6" t="s">
+        <v>7</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="F6" t="s">
+        <v>14</v>
+      </c>
+      <c r="G6" t="s">
+        <v>22</v>
+      </c>
+      <c r="H6" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C7" t="s">
+        <v>7</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="F7" t="s">
+        <v>27</v>
+      </c>
+      <c r="G7" t="s">
         <v>15</v>
       </c>
-      <c r="G2" t="s">
-        <v>16</v>
-      </c>
-      <c r="H2" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A3" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="C3" t="s">
-        <v>8</v>
-      </c>
-      <c r="D3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F3" t="s">
-        <v>15</v>
-      </c>
-      <c r="G3" t="s">
-        <v>17</v>
-      </c>
-      <c r="H3" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A4" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="C4" t="s">
-        <v>8</v>
-      </c>
-      <c r="D4" t="s">
-        <v>5</v>
-      </c>
-      <c r="E4" t="s">
-        <v>5</v>
-      </c>
-      <c r="F4" t="s">
-        <v>15</v>
-      </c>
-      <c r="G4" t="s">
-        <v>18</v>
-      </c>
-      <c r="H4" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A5" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="C5" t="s">
-        <v>8</v>
-      </c>
-      <c r="D5" t="s">
-        <v>5</v>
-      </c>
-      <c r="E5" t="s">
-        <v>5</v>
-      </c>
-      <c r="F5" t="s">
-        <v>15</v>
-      </c>
-      <c r="G5" t="s">
-        <v>19</v>
-      </c>
-      <c r="H5" t="s">
-        <v>22</v>
+      <c r="H7" s="2" t="s">
+        <v>28</v>
       </c>
     </row>
   </sheetData>
@@ -721,22 +761,22 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="23.26953125" customWidth="1"/>
-    <col min="2" max="2" width="33.453125" customWidth="1"/>
-    <col min="3" max="3" width="23.7265625" customWidth="1"/>
-    <col min="4" max="4" width="18.81640625" customWidth="1"/>
+    <col min="1" max="1" width="23.28515625" customWidth="1"/>
+    <col min="2" max="2" width="33.42578125" customWidth="1"/>
+    <col min="3" max="3" width="23.7109375" customWidth="1"/>
+    <col min="4" max="4" width="18.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -750,18 +790,18 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C2" t="s">
         <v>4</v>
       </c>
-      <c r="D2" t="s">
-        <v>5</v>
+      <c r="D2" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
   </sheetData>
@@ -770,23 +810,23 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="D2" sqref="D2:E2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="20.453125" customWidth="1"/>
-    <col min="2" max="2" width="36.453125" customWidth="1"/>
+    <col min="1" max="1" width="20.42578125" customWidth="1"/>
+    <col min="2" max="2" width="36.42578125" customWidth="1"/>
     <col min="3" max="3" width="24" customWidth="1"/>
-    <col min="4" max="4" width="18.54296875" customWidth="1"/>
-    <col min="5" max="5" width="22.453125" customWidth="1"/>
+    <col min="4" max="4" width="18.5703125" customWidth="1"/>
+    <col min="5" max="5" width="22.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -797,27 +837,27 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="E1" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D2" t="s">
-        <v>5</v>
-      </c>
-      <c r="E2" t="s">
-        <v>5</v>
+        <v>7</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
   </sheetData>
@@ -826,22 +866,22 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="19.81640625" customWidth="1"/>
-    <col min="2" max="2" width="32.54296875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="18.26953125" customWidth="1"/>
-    <col min="4" max="4" width="17.54296875" customWidth="1"/>
+    <col min="1" max="1" width="19.85546875" customWidth="1"/>
+    <col min="2" max="2" width="32.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.28515625" customWidth="1"/>
+    <col min="4" max="4" width="17.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -855,18 +895,18 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C2" t="s">
         <v>4</v>
       </c>
-      <c r="D2" t="s">
-        <v>5</v>
+      <c r="D2" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
   </sheetData>
@@ -875,23 +915,23 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="D2" sqref="D2:E2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="18.54296875" customWidth="1"/>
-    <col min="2" max="2" width="31.1796875" customWidth="1"/>
-    <col min="3" max="3" width="14.81640625" customWidth="1"/>
-    <col min="4" max="4" width="19.54296875" customWidth="1"/>
-    <col min="5" max="5" width="15.1796875" customWidth="1"/>
+    <col min="1" max="1" width="18.5703125" customWidth="1"/>
+    <col min="2" max="2" width="31.140625" customWidth="1"/>
+    <col min="3" max="3" width="14.85546875" customWidth="1"/>
+    <col min="4" max="4" width="19.5703125" customWidth="1"/>
+    <col min="5" max="5" width="15.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -902,27 +942,27 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="E1" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D2" t="s">
-        <v>5</v>
-      </c>
-      <c r="E2" t="s">
-        <v>5</v>
+        <v>7</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
   </sheetData>
@@ -931,22 +971,26 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
-  <dimension ref="A1:I2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:K7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="H15" sqref="H15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.26953125" customWidth="1"/>
-    <col min="2" max="2" width="25.26953125" customWidth="1"/>
-    <col min="8" max="8" width="19.26953125" customWidth="1"/>
-    <col min="9" max="9" width="22.81640625" customWidth="1"/>
+    <col min="1" max="1" width="14.28515625" customWidth="1"/>
+    <col min="2" max="2" width="34.28515625" customWidth="1"/>
+    <col min="3" max="3" width="17.85546875" customWidth="1"/>
+    <col min="4" max="4" width="21.5703125" customWidth="1"/>
+    <col min="5" max="5" width="24.42578125" customWidth="1"/>
+    <col min="7" max="7" width="15.85546875" customWidth="1"/>
+    <col min="8" max="8" width="19.28515625" customWidth="1"/>
+    <col min="9" max="9" width="22.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -957,51 +1001,211 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="E1" s="1" t="s">
-        <v>7</v>
-      </c>
       <c r="F1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G1" t="s">
         <v>10</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>11</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>12</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
+        <v>33</v>
+      </c>
+      <c r="K1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="F2" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A2" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="C2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D2" t="s">
-        <v>5</v>
-      </c>
-      <c r="E2" t="s">
-        <v>5</v>
-      </c>
-      <c r="F2" t="s">
+      <c r="G2" t="s">
         <v>14</v>
       </c>
-      <c r="G2" t="s">
+      <c r="H2" t="s">
         <v>15</v>
       </c>
-      <c r="H2" t="s">
-        <v>16</v>
-      </c>
       <c r="I2" t="s">
-        <v>21</v>
+        <v>35</v>
+      </c>
+      <c r="J2" t="s">
+        <v>36</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="F3" t="s">
+        <v>13</v>
+      </c>
+      <c r="G3" t="s">
+        <v>49</v>
+      </c>
+      <c r="H3" t="s">
+        <v>38</v>
+      </c>
+      <c r="I3" t="s">
+        <v>50</v>
+      </c>
+      <c r="J3" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="F4" t="s">
+        <v>13</v>
+      </c>
+      <c r="G4" t="s">
+        <v>40</v>
+      </c>
+      <c r="H4" t="s">
+        <v>17</v>
+      </c>
+      <c r="I4" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="F5" t="s">
+        <v>13</v>
+      </c>
+      <c r="G5" t="s">
+        <v>26</v>
+      </c>
+      <c r="H5" t="s">
+        <v>42</v>
+      </c>
+      <c r="I5" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C6" t="s">
+        <v>7</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="F6" t="s">
+        <v>13</v>
+      </c>
+      <c r="G6" t="s">
+        <v>24</v>
+      </c>
+      <c r="H6" t="s">
+        <v>43</v>
+      </c>
+      <c r="I6" s="2" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C7" t="s">
+        <v>7</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="F7" t="s">
+        <v>13</v>
+      </c>
+      <c r="G7" t="s">
+        <v>24</v>
+      </c>
+      <c r="H7" t="s">
+        <v>44</v>
+      </c>
+      <c r="I7" s="2" t="s">
+        <v>46</v>
       </c>
     </row>
   </sheetData>
@@ -1010,63 +1214,13 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
-  <dimension ref="A1:F2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <cols>
-    <col min="1" max="1" width="13.81640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="29.7265625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.90625" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="18.26953125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="42.54296875" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" ht="409.5" x14ac:dyDescent="0.35">
-      <c r="A2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B2" t="s">
-        <v>20</v>
-      </c>
-      <c r="C2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="F2" s="3" t="s">
-        <v>27</v>
-      </c>
-    </row>
-  </sheetData>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/ocms/src/test/resources/TestData/OCMAudioVideoPlaybackReport.xlsx
+++ b/ocms/src/test/resources/TestData/OCMAudioVideoPlaybackReport.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9302"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="17730" windowHeight="8040" firstSheet="4" activeTab="6"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="17730" windowHeight="8040" firstSheet="3" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="Show" sheetId="1" r:id="rId1"/>
@@ -14,10 +14,9 @@
     <sheet name="ExportReport" sheetId="5" r:id="rId5"/>
     <sheet name="ExportReportDateRange" sheetId="6" r:id="rId6"/>
     <sheet name="AdvanceSearch" sheetId="8" r:id="rId7"/>
-    <sheet name="Sheet3" sheetId="11" r:id="rId8"/>
+    <sheet name="Queries" sheetId="11" r:id="rId8"/>
   </sheets>
   <calcPr calcId="0"/>
-  <oleSize ref="A1:J24"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -27,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="170" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="182" uniqueCount="55">
   <si>
     <t>Report Channel</t>
   </si>
@@ -180,6 +179,109 @@
   </si>
   <si>
     <t>audio</t>
+  </si>
+  <si>
+    <t>Query</t>
+  </si>
+  <si>
+    <t>01-05-2020 00:00:00</t>
+  </si>
+  <si>
+    <t>12-05-2020 00:00:00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SELECT M.[SessionID] as [Session ID],M.[IDENTIFICATION] as [Identification],M.CHANNEL as [Channel],M.[Skill],
+M.[AgentID] as [Agent ID],A.[AgentName] as [Agent Name],A.[TeamName] as [Team Name],
+A.[SupervisorName] as [Supervisor Name],
+FORMAT([dbo].[VARCHARTODATETIME](M.ChatBotStartDateTime),'dd/MM/yyyy HH:mm:ss') as [ChatBot Start Date Time],
+FORMAT([dbo].[VARCHARTODATETIME](M.[ChatBotEndDateTime]),'dd/MM/yyyy HH:mm:ss') as [ChatBot End Date Time],
+FORMAT([dbo].[VARCHARTODATETIME](M.StartDateTime),'dd/MM/yyyy HH:mm:ss') as [Live Chat Start Date Time],
+FORMAT([dbo].[VARCHARTODATETIME](M.EndDateTime),'dd/MM/yyyy HH:mm:ss') as [Live Chat End Date Time],
+('' +RIGHT('0'+CONVERT(VARCHAR(12),DURATIONTIME /60/60),3) 
++ ':' + RIGHT('0' + CONVERT(VARCHAR(2),DURATIONTIME /60 % 60), 2) 
++ ':' + RIGHT('0' + CONVERT(VARCHAR(2),  DURATIONTIME % 60), 2)) as [Duration],
+[CallBack],
+('' +RIGHT('0'+CONVERT(VARCHAR(12),M.QUEUEWAITTIME /60/60),3) 
++ ':' + RIGHT('0' + CONVERT(VARCHAR(2),M.QUEUEWAITTIME /60 % 60), 2) 
++ ':' + RIGHT('0' + CONVERT(VARCHAR(2), M.QUEUEWAITTIME % 60), 2)) as [Queue Wait Time],
+--[IntentName],[SegmentCode],[SubSegmentCode],[CustEntType],[IsChatConferenced],[IsChatTransfered],
+('' +RIGHT('0'+CONVERT(VARCHAR(12),M.AGENTWAITTIME /60/60),3) 
++ ':' + RIGHT('0' + CONVERT(VARCHAR(2),M.AGENTWAITTIME /60 % 60), 2) 
++ ':' + RIGHT('0' + CONVERT(VARCHAR(2), M.AGENTWAITTIME % 60), 2)) as [Agent Wait Time],
+('' +RIGHT('0'+CONVERT(VARCHAR(12),M.USERWAITTIME /60/60),3) 
++ ':' + RIGHT('0' + CONVERT(VARCHAR(2),M.USERWAITTIME /60 % 60), 2) 
++ ':' + RIGHT('0' + CONVERT(VARCHAR(2), M.USERWAITTIME % 60), 2)) as[User Wait Time],
+isnull(M.[CHATENDREASON],'') as [Chat End Reason],' ' as[ ]
+--M.OTHERDATA 
+from 
+(SELECT DISTINCT  H.SESSIONID,H.ID,H.CIF AS IDENTIFICATION,INTDATETIME.StartDateTime,INTDATETIME.EndDateTime,
+   CASE WHEN ChatBotStartDateTime IS NULL THEN INTDATETIME.StartDateTime ELSE ChatBotStartDateTime END ChatBotStartDateTime,
+   CASE WHEN ChatBotEndDateTime IS NULL THEN INTDATETIME.EndDateTime ELSE ChatBotEndDateTime END ChatBotEndDateTime,I.Intent INTENTNAME ,
+   (CASE WHEN ISNULL(S.SkillName,'')='' THEN ISNULL(I.Skill,'') ELSE ISNULL(S.SkillName,'') END) as Skill,
+   (CASE WHEN (Isnull(TabCallback.CallbackCount,0))=0 THEN 'No' ELSE 'Yes' END) AS CALLBACK, 
+   isnull((DATEDIFF(SECOND,convert(datetime,stuff(stuff(stuff(INTDATETIME.StartDateTime, 9, 0, ' '), 12, 0, ':'), 15, 0, ':')),
+   convert(datetime,stuff(stuff(stuff(INTDURTIME.DurEndDateTime, 9, 0, ' '), 12, 0, ':'), 15, 0, ':')))),0) AS DURATIONTIME,
+   ISCHATTRANSFERED,ISCHATCONFERENCED,  I.AgentID AS AGENTID,OTHERDATA as OTHERDATA,Isnull(QueueTime,0) AS QUEUEWAITTIME,
+   AGENTWAITTIME,USERWAITTIME, I.SUBCHANNEL AS CHANNEL, INTDURTIME.CHATENDREASON
+   FROM GBL_INTERACTIONHISTORY H with(nolock) 
+   LEFT JOIN TMAC_Interactions I with(nolock)ON I.SessionID= H.SessionID
+   LEFT JOIN TMAC_Skills S with(nolock) on S.SkillExtension=I.Skill
+   LEFT JOIN
+   (
+     SELECT SessionID, isnull(sum(ISTRANSFERED),0) AS ISCHATTRANSFERED,isnull(sum(ISCONFERENCED),0) AS ISCHATCONFERENCED, 
+     isnull(sum(AgentWaitTimeForResponse),0) as AGENTWAITTIME , isnull(sum(UserWaitTimeForResponse),0) as USERWAITTIME from TMAC_Interactions with(nolock) 
+     WHERE Channel IN ('AudioChat','VideoChat') OR SubChannel IN ('Audio','Video') GROUP BY SESSIONID
+   ) 
+   CHAT ON CHAT.SessionID=H.SessionID  
+   LEFT JOIN
+   (
+    SELECT  SessionID,MIN(INTERACTIONDATE+INTERACTIONTIME) AS StartDateTime,
+    MAX(INTERACTIONDATE+INTERACTIONTIME) AS EndDateTime FROM GBL_INTERACTIONHISTORY with(nolock) WHERE Channel IN ('AudioChat','VideoChat','Chat','TextChat') AND InsertedBy &lt;&gt; 'ChatBot' 
+    GROUP BY SESSIONID
+   ) 
+   INTDATETIME ON INTDATETIME.SessionID = H.SessionID  
+   LEFT JOIN
+   (
+    SELECT  SessionID,MIN(INTERACTIONDATE+INTERACTIONTIME) AS ChatBotStartDateTime,
+    MAX(INTERACTIONDATE+INTERACTIONTIME) AS ChatBotEndDateTime FROM GBL_INTERACTIONHISTORY with(nolock) WHERE Channel IN ('AudioChat','VideoChat','Chat','TextChat') AND InsertedBy = 'ChatBot' 
+    GROUP BY SESSIONID
+   ) 
+   BOTDATETIME ON BOTDATETIME.SessionID = H.SessionID  
+   LEFT JOIN
+   (
+    SELECT  SessionID,INTERACTIONDATE+INTERACTIONTIME AS DurEndDateTime,substring (InteractionText ,charindex(':',InteractionText)+1,500) AS CHATENDREASON 
+    FROM GBL_INTERACTIONHISTORY with(nolock) WHERE ID IN ( SELECT  MAX(id) as ID from GBL_INTERACTIONHISTORY with(nolock)  
+    WHERE Channel IN ('AudioChat','VideoChat','Chat','TextChat')  AND (INTERACTIONTEXT like '_RemoteEndDisconnected%'  OR INTERACTIONTEXT like '_RemoteEndClosed%' OR INTERACTIONTEXT like '_Agent-EndTextChat%')
+    AND InsertedBy &lt;&gt; 'ChatBot' 
+    GROUP BY SESSIONID) GROUP BY SESSIONID,INTERACTIONDATE,INTERACTIONTIME,InteractionText
+   ) 
+   INTDURTIME ON INTDURTIME.SessionID = H.SessionID  
+   LEFT JOIN 
+   ( 
+     Select SessionID, COUNT(1) as CallbackCount FROM IVR_CALLBACK_REQUESTS R with(nolock)
+     JOIN TMAC_Interactions C with(nolock) on C.SubSessionId  = R.UCID 
+     GROUP By SessionID
+   ) 
+   TabCallback on TabCallback.SessionID = H.SessionID 
+   INNER JOIN
+   (
+     SELECT  min(id) as ID,SESSIONID from GBL_INTERACTIONHISTORY with(nolock) WHERE Channel IN ('AudioChat','VideoChat','Chat','TextChat')
+     GROUP BY SESSIONID
+   )
+   HID ON HID.SESSIONID = H.SESSIONID AND HID.ID=H.ID
+   WHERE IsTransfered=0 AND IsConferenced=0  AND H.Channel IN ('AudioChat','VideoChat','Chat','TextChat') 
+   AND I.ClosedDateTime &gt;= 'ReportBeforeDate' AND I.ClosedDateTime &lt;= 'ReportAfterDate'
+   AND I.CreatedDateTime in ( SELECT  min(CreatedDateTime) as id from TMAC_Interactions with(nolock)  
+   WHERE (Channel IN ('AudioChat','VideoChat') OR SubChannel IN ('Audio','Video')) 
+   AND CALLCONNECTEDTIME != '00010101000000' 
+   AND ClosedDateTime &gt;= 'ReportBeforeDate' AND ClosedDateTime &lt;= 'ReportAfterDate'  
+   GROUP BY SESSIONID)
+   GROUP BY H.sessionid,I.Intent,TabCallback.CallbackCount,CustomData,CHAT.AGENTWAITTIME,CHAT.USERWAITTIME,
+   QUEUETIME,StartDateTime,EndDateTime,ChatBotStartDateTime,ChatBotEndDateTime,CIF,ISCHATTRANSFERED,ISCHATCONFERENCED,H.ID,
+   I.AgentID,INTDURTIME.DurEndDateTime,I.Subchannel,INTDURTIME.CHATENDREASON,I.OtherData,S.SkillName,I.Skill) 
+   M INNER JOIN fn_AgentHierarchy('na','1','1') A on A.[AgentId]=M.[AgentID] 
+   order by M.ChatBotStartDateTime ASC
+</t>
   </si>
 </sst>
 </file>
@@ -215,10 +317,19 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -279,7 +390,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -314,7 +425,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -491,7 +602,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -502,7 +613,7 @@
   <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="E26" sqref="E26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -974,7 +1085,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K7"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+    <sheetView topLeftCell="C1" workbookViewId="0">
       <selection activeCell="H15" sqref="H15"/>
     </sheetView>
   </sheetViews>
@@ -1215,12 +1326,62 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:F2"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="E2" sqref="E2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="14.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="32" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="18.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="40" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E1" t="s">
+        <v>6</v>
+      </c>
+      <c r="F1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="409.5" x14ac:dyDescent="0.25">
+      <c r="A2" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>54</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/ocms/src/test/resources/TestData/OCMAudioVideoPlaybackReport.xlsx
+++ b/ocms/src/test/resources/TestData/OCMAudioVideoPlaybackReport.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22527"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\admin\git\scripts\ocms\src\test\resources\TestData\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8240B02A-C9D7-49B7-87F8-4AA54AAC831F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="17730" windowHeight="8040" firstSheet="3" activeTab="7"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10560" firstSheet="4" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Show" sheetId="1" r:id="rId1"/>
@@ -26,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="182" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="250" uniqueCount="59">
   <si>
     <t>Report Channel</t>
   </si>
@@ -88,9 +94,6 @@
     <t>OCM Audio Video Playback Report</t>
   </si>
   <si>
-    <t>Media</t>
-  </si>
-  <si>
     <t>A</t>
   </si>
   <si>
@@ -100,9 +103,6 @@
     <t>n</t>
   </si>
   <si>
-    <t>Agent ID</t>
-  </si>
-  <si>
     <t>Chat End Reason</t>
   </si>
   <si>
@@ -133,12 +133,6 @@
     <t>Search String2</t>
   </si>
   <si>
-    <t>Murali MS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Murali </t>
-  </si>
-  <si>
     <t>9</t>
   </si>
   <si>
@@ -160,13 +154,7 @@
     <t>Starts with</t>
   </si>
   <si>
-    <t>Ends with</t>
-  </si>
-  <si>
     <t>ChatSkill</t>
-  </si>
-  <si>
-    <t>4</t>
   </si>
   <si>
     <t>DeleteReason</t>
@@ -283,11 +271,41 @@
    order by M.ChatBotStartDateTime ASC
 </t>
   </si>
+  <si>
+    <t>01-05-2020 00:00:01</t>
+  </si>
+  <si>
+    <t>01-05-2020 00:00:02</t>
+  </si>
+  <si>
+    <t>01-05-2020 00:00:03</t>
+  </si>
+  <si>
+    <t>01-05-2020 00:00:04</t>
+  </si>
+  <si>
+    <t>01-05-2020 00:00:05</t>
+  </si>
+  <si>
+    <t>Villers</t>
+  </si>
+  <si>
+    <t>Abrahma Villers</t>
+  </si>
+  <si>
+    <t>a</t>
+  </si>
+  <si>
+    <t>na</t>
+  </si>
+  <si>
+    <t>Supervisor Name</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -322,12 +340,12 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
   </cellXfs>
@@ -602,29 +620,29 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E26" sqref="E26"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="21.140625" customWidth="1"/>
-    <col min="2" max="2" width="33.85546875" customWidth="1"/>
-    <col min="3" max="3" width="20.42578125" customWidth="1"/>
-    <col min="4" max="4" width="17.28515625" customWidth="1"/>
+    <col min="1" max="1" width="21.1796875" customWidth="1"/>
+    <col min="2" max="2" width="33.81640625" customWidth="1"/>
+    <col min="3" max="3" width="20.453125" customWidth="1"/>
+    <col min="4" max="4" width="17.26953125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -638,7 +656,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
         <v>8</v>
       </c>
@@ -649,7 +667,7 @@
         <v>4</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
   </sheetData>
@@ -658,27 +676,27 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:I7"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="I5" sqref="I5"/>
+    <sheetView topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="H5" sqref="H5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="17.140625" customWidth="1"/>
-    <col min="2" max="2" width="34.7109375" customWidth="1"/>
-    <col min="3" max="3" width="18.140625" customWidth="1"/>
-    <col min="4" max="4" width="15.85546875" customWidth="1"/>
-    <col min="5" max="5" width="17.7109375" customWidth="1"/>
-    <col min="6" max="6" width="19.85546875" customWidth="1"/>
-    <col min="7" max="7" width="17.140625" customWidth="1"/>
-    <col min="8" max="8" width="22.85546875" customWidth="1"/>
-    <col min="9" max="9" width="15.5703125" customWidth="1"/>
+    <col min="1" max="1" width="17.1796875" customWidth="1"/>
+    <col min="2" max="2" width="34.7265625" customWidth="1"/>
+    <col min="3" max="3" width="18.1796875" customWidth="1"/>
+    <col min="4" max="4" width="15.81640625" customWidth="1"/>
+    <col min="5" max="5" width="17.7265625" customWidth="1"/>
+    <col min="6" max="6" width="19.81640625" customWidth="1"/>
+    <col min="7" max="7" width="17.1796875" customWidth="1"/>
+    <col min="8" max="8" width="22.81640625" customWidth="1"/>
+    <col min="9" max="9" width="15.54296875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -704,10 +722,10 @@
         <v>12</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
         <v>8</v>
       </c>
@@ -718,25 +736,25 @@
         <v>7</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>31</v>
+        <v>46</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="F2" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="G2" t="s">
         <v>15</v>
       </c>
       <c r="H2" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="I2" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
         <v>8</v>
       </c>
@@ -747,22 +765,22 @@
         <v>7</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>31</v>
+        <v>49</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="F3" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="G3" t="s">
         <v>16</v>
       </c>
       <c r="H3" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
         <v>8</v>
       </c>
@@ -773,10 +791,10 @@
         <v>7</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>31</v>
+        <v>50</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="F4" t="s">
         <v>14</v>
@@ -785,10 +803,10 @@
         <v>17</v>
       </c>
       <c r="H4" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A5" s="1" t="s">
         <v>8</v>
       </c>
@@ -799,10 +817,10 @@
         <v>7</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>31</v>
+        <v>51</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="F5" t="s">
         <v>14</v>
@@ -811,10 +829,10 @@
         <v>18</v>
       </c>
       <c r="H5" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A6" s="1" t="s">
         <v>8</v>
       </c>
@@ -825,22 +843,22 @@
         <v>7</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>31</v>
+        <v>52</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="F6" t="s">
         <v>14</v>
       </c>
       <c r="G6" t="s">
+        <v>21</v>
+      </c>
+      <c r="H6" t="s">
         <v>22</v>
       </c>
-      <c r="H6" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A7" s="1" t="s">
         <v>8</v>
       </c>
@@ -851,19 +869,19 @@
         <v>7</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>31</v>
+        <v>53</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="F7" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="G7" t="s">
         <v>15</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
   </sheetData>
@@ -872,22 +890,22 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="23.28515625" customWidth="1"/>
-    <col min="2" max="2" width="33.42578125" customWidth="1"/>
-    <col min="3" max="3" width="23.7109375" customWidth="1"/>
-    <col min="4" max="4" width="18.85546875" customWidth="1"/>
+    <col min="1" max="1" width="23.26953125" customWidth="1"/>
+    <col min="2" max="2" width="33.453125" customWidth="1"/>
+    <col min="3" max="3" width="23.7265625" customWidth="1"/>
+    <col min="4" max="4" width="18.81640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -901,7 +919,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
         <v>8</v>
       </c>
@@ -912,7 +930,7 @@
         <v>4</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
   </sheetData>
@@ -921,23 +939,23 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D2" sqref="D2:E2"/>
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="20.42578125" customWidth="1"/>
-    <col min="2" max="2" width="36.42578125" customWidth="1"/>
+    <col min="1" max="1" width="20.453125" customWidth="1"/>
+    <col min="2" max="2" width="36.453125" customWidth="1"/>
     <col min="3" max="3" width="24" customWidth="1"/>
-    <col min="4" max="4" width="18.5703125" customWidth="1"/>
-    <col min="5" max="5" width="22.42578125" customWidth="1"/>
+    <col min="4" max="4" width="18.54296875" customWidth="1"/>
+    <col min="5" max="5" width="22.453125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -954,7 +972,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
         <v>8</v>
       </c>
@@ -965,10 +983,10 @@
         <v>7</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>31</v>
+        <v>46</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
   </sheetData>
@@ -977,22 +995,22 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="19.85546875" customWidth="1"/>
-    <col min="2" max="2" width="32.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="18.28515625" customWidth="1"/>
-    <col min="4" max="4" width="17.5703125" customWidth="1"/>
+    <col min="1" max="1" width="15.1796875" customWidth="1"/>
+    <col min="2" max="2" width="32.54296875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.7265625" customWidth="1"/>
+    <col min="4" max="4" width="19.7265625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1006,7 +1024,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
         <v>8</v>
       </c>
@@ -1017,7 +1035,7 @@
         <v>4</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
   </sheetData>
@@ -1026,23 +1044,23 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D2" sqref="D2:E2"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="18.5703125" customWidth="1"/>
-    <col min="2" max="2" width="31.140625" customWidth="1"/>
-    <col min="3" max="3" width="14.85546875" customWidth="1"/>
-    <col min="4" max="4" width="19.5703125" customWidth="1"/>
-    <col min="5" max="5" width="15.140625" customWidth="1"/>
+    <col min="1" max="1" width="18.54296875" customWidth="1"/>
+    <col min="2" max="2" width="31.1796875" customWidth="1"/>
+    <col min="3" max="3" width="14.81640625" customWidth="1"/>
+    <col min="4" max="4" width="19.54296875" customWidth="1"/>
+    <col min="5" max="5" width="15.1796875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1059,7 +1077,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
         <v>8</v>
       </c>
@@ -1070,10 +1088,10 @@
         <v>7</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>31</v>
+        <v>46</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
   </sheetData>
@@ -1082,26 +1100,27 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:K7"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="H15" sqref="H15"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="14.28515625" customWidth="1"/>
-    <col min="2" max="2" width="34.28515625" customWidth="1"/>
-    <col min="3" max="3" width="17.85546875" customWidth="1"/>
-    <col min="4" max="4" width="21.5703125" customWidth="1"/>
-    <col min="5" max="5" width="24.42578125" customWidth="1"/>
-    <col min="7" max="7" width="15.85546875" customWidth="1"/>
-    <col min="8" max="8" width="19.28515625" customWidth="1"/>
-    <col min="9" max="9" width="22.85546875" customWidth="1"/>
+    <col min="1" max="1" width="14.26953125" customWidth="1"/>
+    <col min="2" max="2" width="34.26953125" customWidth="1"/>
+    <col min="3" max="3" width="17.81640625" customWidth="1"/>
+    <col min="4" max="4" width="21.54296875" customWidth="1"/>
+    <col min="5" max="5" width="24.453125" customWidth="1"/>
+    <col min="7" max="7" width="15.81640625" customWidth="1"/>
+    <col min="8" max="8" width="19.26953125" customWidth="1"/>
+    <col min="9" max="9" width="22.81640625" customWidth="1"/>
+    <col min="10" max="11" width="12.54296875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1130,13 +1149,13 @@
         <v>12</v>
       </c>
       <c r="J1" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="K1" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
         <v>8</v>
       </c>
@@ -1147,10 +1166,10 @@
         <v>7</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>31</v>
+        <v>46</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="F2" t="s">
         <v>13</v>
@@ -1162,16 +1181,16 @@
         <v>15</v>
       </c>
       <c r="I2" t="s">
-        <v>35</v>
-      </c>
-      <c r="J2" t="s">
-        <v>36</v>
+        <v>55</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>56</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
         <v>8</v>
       </c>
@@ -1182,28 +1201,28 @@
         <v>7</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>31</v>
+        <v>49</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="F3" t="s">
         <v>13</v>
       </c>
       <c r="G3" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="H3" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="I3" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="J3" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
         <v>8</v>
       </c>
@@ -1214,25 +1233,25 @@
         <v>7</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>31</v>
+        <v>50</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="F4" t="s">
         <v>13</v>
       </c>
       <c r="G4" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="H4" t="s">
         <v>17</v>
       </c>
       <c r="I4" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A5" s="1" t="s">
         <v>8</v>
       </c>
@@ -1243,25 +1262,25 @@
         <v>7</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>31</v>
+        <v>51</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="F5" t="s">
         <v>13</v>
       </c>
       <c r="G5" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="H5" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="I5" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A6" s="1" t="s">
         <v>8</v>
       </c>
@@ -1272,25 +1291,25 @@
         <v>7</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>31</v>
+        <v>52</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="F6" t="s">
         <v>13</v>
       </c>
       <c r="G6" t="s">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="H6" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="I6" s="2" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A7" s="1" t="s">
         <v>8</v>
       </c>
@@ -1301,47 +1320,49 @@
         <v>7</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>31</v>
+        <v>53</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="F7" t="s">
         <v>13</v>
       </c>
       <c r="G7" t="s">
-        <v>24</v>
+        <v>58</v>
       </c>
       <c r="H7" t="s">
-        <v>44</v>
+        <v>17</v>
       </c>
       <c r="I7" s="2" t="s">
-        <v>46</v>
+        <v>57</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:F2"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="14.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.81640625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="32" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="18.28515625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="40" customWidth="1"/>
+    <col min="3" max="3" width="11.7265625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.26953125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.54296875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="42.453125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1358,27 +1379,27 @@
         <v>6</v>
       </c>
       <c r="F1" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" ht="409.5" x14ac:dyDescent="0.25">
-      <c r="A2" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="C2" s="3" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="409.5" x14ac:dyDescent="0.35">
+      <c r="A2" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="C2" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="D2" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="E2" s="5" t="s">
-        <v>53</v>
-      </c>
-      <c r="F2" s="4" t="s">
-        <v>54</v>
+      <c r="D2" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>48</v>
       </c>
     </row>
   </sheetData>
